--- a/SubRES_TMPL/Kopia VT_Model_ALL_V01.xlsx
+++ b/SubRES_TMPL/Kopia VT_Model_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -820,7 +820,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1041,9 +1041,6 @@
     <t>Output Commodity</t>
   </si>
   <si>
-    <t>Extraction or Import cost</t>
-  </si>
-  <si>
     <t>Annual Activity Bound</t>
   </si>
   <si>
@@ -1171,6 +1168,15 @@
   </si>
   <si>
     <t>Variable Cost O&amp;M [zł/PJ]</t>
+  </si>
+  <si>
+    <t>COAL_MINE</t>
+  </si>
+  <si>
+    <t>Kopalnia</t>
+  </si>
+  <si>
+    <t>Extraction or Import cost [zł/PJ]</t>
   </si>
 </sst>
 </file>
@@ -2395,7 +2401,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2483,9 +2489,6 @@
     <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2627,6 +2630,12 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2638,12 +2647,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3517,37 +3520,37 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="112" t="s">
-        <v>103</v>
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="113" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="105"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="112"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="105"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
@@ -3572,11 +3575,11 @@
       <c r="I5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="112"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="105"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="34" t="s">
         <v>36</v>
       </c>
@@ -3601,57 +3604,57 @@
       <c r="I6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="112"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="105"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="110" t="s">
         <v>105</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="115" t="s">
-        <v>106</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="105"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="42"/>
+      <c r="E8" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="41"/>
       <c r="G8" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="112"/>
+        <v>111</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="105"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="35"/>
       <c r="C9" s="36"/>
       <c r="D9" s="38"/>
@@ -3660,92 +3663,92 @@
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="112"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="105"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="39"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="112"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="113"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="112"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="113"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="112"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="113"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="111" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="111"/>
+      <c r="B15" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="112"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="96" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="97" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="98" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="97" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="99" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3767,7 +3770,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3797,69 +3800,69 @@
         <v>10</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="49" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3869,33 +3872,39 @@
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="F7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="H7" s="35" t="s">
         <v>111</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>112</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="39"/>
+      <c r="B8" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="40"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="D8" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="35"/>
@@ -3911,13 +3920,13 @@
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="39"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="35"/>
@@ -3931,94 +3940,94 @@
       <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="54" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="54" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="54" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4035,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4135,7 +4144,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>23</v>
@@ -4170,10 +4179,10 @@
         <v>72</v>
       </c>
       <c r="E6" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>73</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>74</v>
       </c>
       <c r="G6" s="14"/>
       <c r="K6" s="5"/>
@@ -4189,22 +4198,23 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
       <c r="B7" s="15" t="str">
-        <f>SEC_Processes!D7</f>
-        <v>COAL_POWER_PLANT</v>
+        <f>SEC_Processes!D8</f>
+        <v>COAL_MINE</v>
       </c>
       <c r="C7" s="15" t="str">
-        <f>SEC_Processes!E7</f>
-        <v>Kozienice Power Plant</v>
+        <f>SEC_Processes!E8</f>
+        <v>Kopalnia</v>
       </c>
       <c r="D7" s="18" t="str">
         <f>SEC_Comm!C7</f>
         <v>HARD_COAL</v>
       </c>
-      <c r="E7" s="17" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC</v>
-      </c>
-      <c r="F7" s="16"/>
+      <c r="E7" s="17">
+        <v>11</v>
+      </c>
+      <c r="F7" s="16">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="20"/>
@@ -4267,70 +4277,70 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="B2" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="E5" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="84" t="s">
+      <c r="H5" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="84" t="s">
+      <c r="J5" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="K5" s="83" t="s">
         <v>88</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="39" thickBot="1">
@@ -4341,75 +4351,75 @@
         <v>55</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="H6" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="I6" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="K6" s="85" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63" t="str">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62" t="str">
         <f>SEC_Processes!E7</f>
         <v>Kozienice Power Plant</v>
       </c>
-      <c r="D7" s="86" t="str">
+      <c r="D7" s="85" t="str">
         <f>SEC_Comm!C7</f>
         <v>HARD_COAL</v>
       </c>
-      <c r="E7" s="86" t="str">
+      <c r="E7" s="85" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="86">
         <v>3</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G7" s="86">
         <v>0.33</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="87">
         <v>31.536000000000001</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="87">
         <f>2000/8760</f>
         <v>0.22831050228310501</v>
       </c>
       <c r="J7" s="17">
         <v>1</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
     </row>
     <row r="22" spans="11:13">
       <c r="K22">
@@ -4433,7 +4443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -4443,69 +4453,69 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="B2" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="78"/>
-      <c r="C3" s="79"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="E5" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="84" t="s">
+      <c r="H5" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="84" t="s">
+      <c r="J5" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="K5" s="83" t="s">
         <v>88</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="39" thickBot="1">
@@ -4516,110 +4526,110 @@
         <v>55</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="H6" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="I6" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="J6" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="K6" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="85" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="88"/>
+      <c r="K7" s="87"/>
     </row>
     <row r="8" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
     </row>
     <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
+      <c r="B10" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="61" t="s">
-        <v>98</v>
+      <c r="B12" s="60" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="95">
+      <c r="C13" s="94">
         <v>2020</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="94">
         <v>2021</v>
       </c>
-      <c r="E13" s="96">
+      <c r="E13" s="95">
         <v>2025</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="39" thickBot="1">
       <c r="B14" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="63" t="str">
+      <c r="B15" s="62" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="85">
         <v>100</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
     </row>
     <row r="16" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4645,47 +4655,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="H5" s="55" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="H5" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="J5" s="54" t="s">
         <v>78</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="39" thickBot="1">
@@ -4693,48 +4703,48 @@
         <v>71</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4745,12 +4755,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4973,20 +4985,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5011,12 +5024,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>